--- a/Plan/2022-23/ProgrammaOrario-AMSC-22-23.xlsx
+++ b/Plan/2022-23/ProgrammaOrario-AMSC-22-23.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
   <si>
     <t xml:space="preserve">Martedi</t>
   </si>
@@ -83,76 +83,91 @@
     <t xml:space="preserve">Intro to CPP</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finire intro c++ con esempi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualche esempio C++</t>
+    <t xml:space="preserve">Floating points and libraries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esempi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LF indisponibile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makefile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauree Magistrali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart pointers and Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esempi con classi e polym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completamento parte C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primi esempi MPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Festa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine MPI + OpenMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prove in itinere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esempi MPI/Openmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suddivisione in gruppi e definizioni esempi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussione Esempi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into to cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floating points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libraries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Pointers</t>
   </si>
   <si>
     <t xml:space="preserve">Classes </t>
   </si>
   <si>
-    <t xml:space="preserve">Esempio di uso di classi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LF indisponibile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine introduzione C++ (smart pointers. floating points)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lauree Magistrali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro to parallel + MPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esempi di C++ + primo esempio MPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completamento MPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altri esempi MPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completamento OpenMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primi esempi openMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Festa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esempi calcolo Parallelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prove in itinere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makefile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lauree </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tot</t>
+    <t xml:space="preserve">STL intro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openmp</t>
   </si>
   <si>
     <t xml:space="preserve">* Argomenti gia' trattati che potrebbero essere estesi:</t>
@@ -647,7 +662,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -890,10 +905,6 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1058,13 +1069,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D5" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.55"/>
@@ -1400,30 +1411,26 @@
         <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="21" t="n">
         <f aca="false">F8+C9</f>
         <v>8</v>
       </c>
       <c r="G9" s="21" t="n">
         <f aca="false">G8+D9</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="22" t="n">
         <f aca="false">H8+E9</f>
-        <v>3</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="K9" s="7"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1461,14 +1468,14 @@
       </c>
       <c r="G10" s="21" t="n">
         <f aca="false">G9+D10</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="22" t="n">
         <f aca="false">H9+E10</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="7"/>
@@ -1509,18 +1516,18 @@
       </c>
       <c r="G11" s="29" t="n">
         <f aca="false">G10+D11</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" s="22" t="n">
         <f aca="false">H10+E11</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
@@ -1559,14 +1566,14 @@
       </c>
       <c r="G12" s="21" t="n">
         <f aca="false">G11+D12</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="22" t="n">
         <f aca="false">H11+E12</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J12" s="7"/>
       <c r="M12" s="8"/>
@@ -1594,7 +1601,7 @@
         <v>44840</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -1604,17 +1611,17 @@
       </c>
       <c r="G13" s="37" t="n">
         <f aca="false">G12+D13</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="22" t="n">
         <f aca="false">H12+E13</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="39"/>
       <c r="K13" s="40"/>
       <c r="L13" s="41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="39"/>
@@ -1653,14 +1660,14 @@
       </c>
       <c r="G14" s="21" t="n">
         <f aca="false">G13+D14</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" s="22" t="n">
         <f aca="false">H13+E14</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="42"/>
@@ -1701,16 +1708,16 @@
       </c>
       <c r="G15" s="43" t="n">
         <f aca="false">G14+D15</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" s="22" t="n">
         <f aca="false">H14+E15</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="7"/>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -1749,14 +1756,14 @@
       </c>
       <c r="G16" s="21" t="n">
         <f aca="false">G15+D16</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" s="22" t="n">
         <f aca="false">H15+E16</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J16" s="8"/>
       <c r="M16" s="8"/>
@@ -1787,30 +1794,26 @@
         <v>14</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="46" t="n">
         <f aca="false">F16+C17</f>
         <v>22</v>
       </c>
       <c r="G17" s="46" t="n">
         <f aca="false">G16+D17</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H17" s="22" t="n">
         <f aca="false">H16+E17</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="K17" s="7"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -1848,14 +1851,14 @@
       </c>
       <c r="G18" s="21" t="n">
         <f aca="false">G17+D18</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H18" s="22" t="n">
         <f aca="false">H17+E18</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J18" s="8"/>
       <c r="L18" s="6"/>
@@ -1887,10 +1890,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F19" s="46" t="n">
         <f aca="false">F18+C19</f>
@@ -1898,18 +1901,16 @@
       </c>
       <c r="G19" s="46" t="n">
         <f aca="false">G18+D19</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" s="22" t="n">
         <f aca="false">H18+E19</f>
-        <v>9</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>34</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I19" s="10"/>
       <c r="J19" s="8"/>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="8"/>
@@ -1937,7 +1938,7 @@
         <v>44866</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
@@ -1947,17 +1948,17 @@
       </c>
       <c r="G20" s="47" t="n">
         <f aca="false">G19+D20</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="22" t="n">
         <f aca="false">H19+E20</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
       <c r="K20" s="49"/>
       <c r="L20" s="50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M20" s="39"/>
       <c r="N20" s="39"/>
@@ -1996,17 +1997,17 @@
       </c>
       <c r="G21" s="52" t="n">
         <f aca="false">G20+D21</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="22" t="n">
         <f aca="false">H20+E21</f>
-        <v>9</v>
-      </c>
-      <c r="I21" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="J21" s="7"/>
-      <c r="K21" s="25" t="s">
-        <v>37</v>
-      </c>
+      <c r="K21" s="25"/>
       <c r="L21" s="6"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -2033,7 +2034,7 @@
         <v>44873</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
@@ -2043,17 +2044,17 @@
       </c>
       <c r="G22" s="47" t="n">
         <f aca="false">G21+D22</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="22" t="n">
         <f aca="false">H21+E22</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" s="40"/>
       <c r="J22" s="48"/>
       <c r="K22" s="48"/>
       <c r="L22" s="53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M22" s="54"/>
       <c r="N22" s="39"/>
@@ -2083,23 +2084,25 @@
         <v>14</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" s="21" t="n">
         <f aca="false">F22+C23</f>
         <v>30</v>
       </c>
       <c r="G23" s="21" t="n">
         <f aca="false">G22+D23</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="22" t="n">
         <f aca="false">H22+E23</f>
-        <v>9</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J23" s="7"/>
+      <c r="K23" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -2127,7 +2130,9 @@
       <c r="C24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="21" t="n">
         <f aca="false">F23+C24</f>
@@ -2135,11 +2140,14 @@
       </c>
       <c r="G24" s="21" t="n">
         <f aca="false">G23+D24</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H24" s="22" t="n">
         <f aca="false">H23+E24</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="42"/>
@@ -2172,21 +2180,25 @@
         <v>14</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F25" s="46" t="n">
         <f aca="false">F24+C25</f>
         <v>34</v>
       </c>
       <c r="G25" s="46" t="n">
         <f aca="false">G24+D25</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H25" s="22" t="n">
         <f aca="false">H24+E25</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J25" s="7"/>
-      <c r="K25" s="25"/>
+      <c r="K25" s="25" t="s">
+        <v>20</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -2215,7 +2227,9 @@
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="21" t="n">
         <f aca="false">F25+C26</f>
@@ -2223,11 +2237,14 @@
       </c>
       <c r="G26" s="21" t="n">
         <f aca="false">G25+D26</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H26" s="22" t="n">
         <f aca="false">H25+E26</f>
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="J26" s="7"/>
       <c r="L26" s="6"/>
@@ -2259,21 +2276,26 @@
         <v>14</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F27" s="46" t="n">
         <f aca="false">F26+C27</f>
         <v>38</v>
       </c>
       <c r="G27" s="46" t="n">
         <f aca="false">G26+D27</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H27" s="22" t="n">
         <f aca="false">H26+E27</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="7"/>
+      <c r="K27" s="25" t="s">
+        <v>20</v>
+      </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -2290,7 +2312,7 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
     </row>
-    <row r="28" s="64" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="63" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="55" t="s">
         <v>13</v>
       </c>
@@ -2302,40 +2324,44 @@
         <v>14</v>
       </c>
       <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
+      <c r="E28" s="57" t="s">
+        <v>14</v>
+      </c>
       <c r="F28" s="58" t="n">
         <f aca="false">F27+C28</f>
         <v>40</v>
       </c>
       <c r="G28" s="58" t="n">
         <f aca="false">G27+D28</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H28" s="22" t="n">
         <f aca="false">H27+E28</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I28" s="59"/>
       <c r="J28" s="60"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
+      <c r="K28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
     </row>
     <row r="29" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -2349,38 +2375,40 @@
         <v>14</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F29" s="46" t="n">
         <f aca="false">F28+C29</f>
         <v>42</v>
       </c>
       <c r="G29" s="46" t="n">
         <f aca="false">G28+D29</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H29" s="22" t="n">
         <f aca="false">H28+E29</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
     </row>
     <row r="30" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
@@ -2393,7 +2421,9 @@
       <c r="C30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="21" t="n">
         <f aca="false">F29+C30</f>
@@ -2401,11 +2431,11 @@
       </c>
       <c r="G30" s="21" t="n">
         <f aca="false">G29+D30</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H30" s="22" t="n">
         <f aca="false">H29+E30</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J30" s="7"/>
       <c r="L30" s="6"/>
@@ -2434,7 +2464,7 @@
         <v>44903</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
@@ -2444,17 +2474,17 @@
       </c>
       <c r="G31" s="37" t="n">
         <f aca="false">G30+D31</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H31" s="22" t="n">
         <f aca="false">H30+E31</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I31" s="40"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="68"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="67"/>
       <c r="L31" s="50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M31" s="39"/>
       <c r="N31" s="39"/>
@@ -2483,7 +2513,9 @@
       <c r="C32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="21" t="n">
         <f aca="false">F31+C32</f>
@@ -2491,11 +2523,11 @@
       </c>
       <c r="G32" s="21" t="n">
         <f aca="false">G31+D32</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H32" s="22" t="n">
         <f aca="false">H31+E32</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I32" s="0"/>
       <c r="J32" s="8"/>
@@ -2528,7 +2560,9 @@
       <c r="C33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="52" t="n">
         <f aca="false">F32+C33</f>
@@ -2536,11 +2570,11 @@
       </c>
       <c r="G33" s="52" t="n">
         <f aca="false">G32+D33</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H33" s="22" t="n">
         <f aca="false">H32+E33</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
@@ -2571,7 +2605,7 @@
         <v>44915</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
@@ -2581,17 +2615,17 @@
       </c>
       <c r="G34" s="47" t="n">
         <f aca="false">G33+D34</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H34" s="22" t="n">
         <f aca="false">H33+E34</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I34" s="40"/>
       <c r="J34" s="48"/>
       <c r="K34" s="48"/>
       <c r="L34" s="50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M34" s="39"/>
       <c r="N34" s="39"/>
@@ -2621,18 +2655,20 @@
         <v>14</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F35" s="52" t="n">
         <f aca="false">F34+C35</f>
         <v>50</v>
       </c>
       <c r="G35" s="52" t="n">
         <f aca="false">G34+D35</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H35" s="22" t="n">
         <f aca="false">H34+E35</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -2654,13 +2690,13 @@
       <c r="AA35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -2682,7 +2718,7 @@
       <c r="AA36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="72"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2710,7 +2746,7 @@
       <c r="AA37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="72"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2722,48 +2758,189 @@
       <c r="K38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="73" t="n">
+        <v>38</v>
+      </c>
+      <c r="F40" s="72" t="n">
         <v>32</v>
       </c>
-      <c r="G40" s="73" t="n">
+      <c r="G40" s="72" t="n">
         <f aca="false">F40/2</f>
         <v>16</v>
       </c>
-      <c r="H40" s="73"/>
+      <c r="H40" s="72"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="73" t="n">
+      <c r="F41" s="72" t="n">
         <v>18</v>
       </c>
-      <c r="G41" s="73" t="n">
+      <c r="G41" s="72" t="n">
         <f aca="false">F41/2</f>
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F42" s="0" t="n">
         <f aca="false">F41+F40</f>
         <v>50</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="L43" s="3" t="n">
+        <f aca="false">L42+(K43/$I$54)</f>
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L44" s="3" t="n">
+        <f aca="false">L43+(K44/$I$54)</f>
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="L45" s="3" t="n">
+        <f aca="false">L44+(K45/$I$54)</f>
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="L46" s="3" t="n">
+        <f aca="false">L45+(K46/$I$54)</f>
+        <v>9.12</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="L47" s="3" t="n">
+        <f aca="false">L46+(K47/$I$54)</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="L48" s="3" t="n">
+        <f aca="false">L47+(K48/$I$54)</f>
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="L49" s="3" t="n">
+        <f aca="false">L48+(K49/$I$54)</f>
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <f aca="false">L49+(K50/$I$54)</f>
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <f aca="false">L50+(K51/$I$54)</f>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K52" s="2" t="n">
+        <f aca="false">SUM(K42:K51)</f>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K53" s="2" t="n">
+        <f aca="false">K52/30</f>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I54" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <f aca="false">K52/25</f>
+        <v>17.04</v>
       </c>
     </row>
   </sheetData>
@@ -2784,126 +2961,126 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="81.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>44</v>
+      <c r="A1" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>46</v>
+      <c r="A2" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>48</v>
+      <c r="A3" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>50</v>
+      <c r="A4" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>52</v>
+      <c r="A5" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>54</v>
+      <c r="A6" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="77" t="s">
-        <v>55</v>
+      <c r="B7" s="76" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="78" t="s">
-        <v>56</v>
+      <c r="B8" s="77" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="77" t="s">
-        <v>57</v>
+      <c r="B9" s="76" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="77" t="s">
-        <v>58</v>
+      <c r="B10" s="76" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="78" t="s">
-        <v>59</v>
+      <c r="B11" s="77" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="77" t="s">
-        <v>60</v>
+      <c r="B12" s="76" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="77" t="s">
-        <v>61</v>
+      <c r="B13" s="76" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="77" t="s">
-        <v>62</v>
+      <c r="B14" s="76" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="77" t="s">
-        <v>63</v>
+      <c r="B15" s="76" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="78" t="s">
-        <v>64</v>
+      <c r="B16" s="77" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="77" t="s">
-        <v>65</v>
+      <c r="B17" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="78" t="s">
-        <v>66</v>
+      <c r="B18" s="77" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="77" t="s">
-        <v>67</v>
+      <c r="B19" s="76" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/2022-23/ProgrammaOrario-AMSC-22-23.xlsx
+++ b/Plan/2022-23/ProgrammaOrario-AMSC-22-23.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
   <si>
     <t xml:space="preserve">Martedi</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve">STL intro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Into Parallel</t>
   </si>
   <si>
     <t xml:space="preserve">openmp</t>
@@ -1069,10 +1072,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AA54"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2819,7 +2822,7 @@
         <v>91</v>
       </c>
       <c r="L43" s="3" t="n">
-        <f aca="false">L42+(K43/$I$54)</f>
+        <f aca="false">L42+(K43/$I$55)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -2831,7 +2834,7 @@
         <v>16</v>
       </c>
       <c r="L44" s="3" t="n">
-        <f aca="false">L43+(K44/$I$54)</f>
+        <f aca="false">L43+(K44/$I$55)</f>
         <v>6.28</v>
       </c>
     </row>
@@ -2843,7 +2846,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="3" t="n">
-        <f aca="false">L44+(K45/$I$54)</f>
+        <f aca="false">L44+(K45/$I$55)</f>
         <v>7.52</v>
       </c>
     </row>
@@ -2855,7 +2858,7 @@
         <v>40</v>
       </c>
       <c r="L46" s="3" t="n">
-        <f aca="false">L45+(K46/$I$54)</f>
+        <f aca="false">L45+(K46/$I$55)</f>
         <v>9.12</v>
       </c>
     </row>
@@ -2867,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="3" t="n">
-        <f aca="false">L46+(K47/$I$54)</f>
+        <f aca="false">L46+(K47/$I$55)</f>
         <v>9.6</v>
       </c>
     </row>
@@ -2876,11 +2879,11 @@
         <v>45</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L48" s="3" t="n">
-        <f aca="false">L47+(K48/$I$54)</f>
-        <v>12.32</v>
+        <f aca="false">L47+(K48/$I$55)</f>
+        <v>12.72</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,59 +2891,75 @@
         <v>46</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L49" s="3" t="n">
-        <f aca="false">L48+(K49/$I$54)</f>
-        <v>14.72</v>
+        <f aca="false">L48+(K49/$I$55)</f>
+        <v>15.48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I50" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="L50" s="3" t="n">
-        <f aca="false">L49+(K50/$I$54)</f>
-        <v>16.76</v>
+        <f aca="false">L49+(K50/$I$55)</f>
+        <v>16.28</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I51" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K51" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <f aca="false">L50+(K51/$I$55)</f>
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="L51" s="3" t="n">
-        <f aca="false">L50+(K51/$I$54)</f>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K52" s="2" t="n">
-        <f aca="false">SUM(K42:K51)</f>
-        <v>426</v>
+      <c r="L52" s="3" t="n">
+        <f aca="false">L51+(K52/$I$55)</f>
+        <v>19.76</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="2" t="n">
-        <v>30</v>
-      </c>
       <c r="K53" s="2" t="n">
-        <f aca="false">K52/30</f>
-        <v>14.2</v>
+        <f aca="false">SUM(K42:K52)</f>
+        <v>465</v>
+      </c>
+      <c r="L53" s="3" t="n">
+        <f aca="false">L52</f>
+        <v>19.76</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I54" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <f aca="false">K53/30</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="K54" s="2" t="n">
-        <f aca="false">K52/25</f>
-        <v>17.04</v>
+      <c r="K55" s="2" t="n">
+        <f aca="false">K53/25</f>
+        <v>18.6</v>
       </c>
     </row>
   </sheetData>
@@ -2972,115 +2991,115 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/2022-23/ProgrammaOrario-AMSC-22-23.xlsx
+++ b/Plan/2022-23/ProgrammaOrario-AMSC-22-23.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
   <si>
     <t xml:space="preserve">Martedi</t>
   </si>
@@ -92,36 +92,33 @@
     <t xml:space="preserve">LF indisponibile</t>
   </si>
   <si>
+    <t xml:space="preserve">Classi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauree Magistrali</t>
+  </si>
+  <si>
     <t xml:space="preserve">Classi + smart pointers</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lauree Magistrali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STL </t>
-  </si>
-  <si>
     <t xml:space="preserve">Esempi con classi e polym</t>
   </si>
   <si>
-    <t xml:space="preserve">Operators</t>
+    <t xml:space="preserve">STL intro</t>
   </si>
   <si>
     <t xml:space="preserve">Esempi STL</t>
   </si>
   <si>
-    <t xml:space="preserve">Completamento parte C++</t>
+    <t xml:space="preserve">Operator + parallel</t>
   </si>
   <si>
     <t xml:space="preserve">MPI</t>
   </si>
   <si>
-    <t xml:space="preserve">NON C’e` Matteo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Festa</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">Classes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STL intro</t>
   </si>
   <si>
     <t xml:space="preserve">Into Parallel</t>
@@ -453,7 +447,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,12 +506,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -674,7 +662,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -867,6 +855,70 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -879,11 +931,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -891,82 +951,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1003,23 +987,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="15" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="14" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1119,8 +1103,8 @@
   </sheetPr>
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1859,12 +1843,11 @@
         <f aca="false">H16+E17</f>
         <v>8</v>
       </c>
-      <c r="I17" s="0"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="9"/>
       <c r="K17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="0"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -1957,31 +1940,29 @@
         <f aca="false">H18+E19</f>
         <v>8</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-    </row>
-    <row r="20" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="35" t="s">
         <v>13</v>
       </c>
@@ -1994,11 +1975,11 @@
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="56" t="n">
+      <c r="F20" s="57" t="n">
         <f aca="false">F19+C20</f>
         <v>24</v>
       </c>
-      <c r="G20" s="56" t="n">
+      <c r="G20" s="57" t="n">
         <f aca="false">G19+D20</f>
         <v>20</v>
       </c>
@@ -2006,11 +1987,11 @@
         <f aca="false">H19+E20</f>
         <v>8</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59" t="s">
-        <v>32</v>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60" t="s">
+        <v>31</v>
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
@@ -2060,7 +2041,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
       <c r="K21" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
@@ -2092,11 +2073,11 @@
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="56" t="n">
+      <c r="F22" s="57" t="n">
         <f aca="false">F21+C22</f>
         <v>26</v>
       </c>
-      <c r="G22" s="56" t="n">
+      <c r="G22" s="57" t="n">
         <f aca="false">G21+D22</f>
         <v>20</v>
       </c>
@@ -2105,10 +2086,10 @@
         <v>10</v>
       </c>
       <c r="I22" s="41"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M22" s="63"/>
       <c r="N22" s="40"/>
@@ -2155,7 +2136,7 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -2201,7 +2182,7 @@
         <v>12</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="43"/>
@@ -2298,7 +2279,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J26" s="8"/>
       <c r="L26" s="7"/>
@@ -2366,7 +2347,7 @@
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" s="72" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="64" t="s">
         <v>13</v>
       </c>
@@ -2445,24 +2426,24 @@
         <v>20</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="74"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
     </row>
     <row r="30" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
@@ -2535,10 +2516,10 @@
         <v>20</v>
       </c>
       <c r="I31" s="41"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="59" t="s">
-        <v>32</v>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="60" t="s">
+        <v>31</v>
       </c>
       <c r="M31" s="40"/>
       <c r="N31" s="40"/>
@@ -2663,11 +2644,11 @@
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
-      <c r="F34" s="56" t="n">
+      <c r="F34" s="57" t="n">
         <f aca="false">F33+C34</f>
         <v>46</v>
       </c>
-      <c r="G34" s="56" t="n">
+      <c r="G34" s="57" t="n">
         <f aca="false">G33+D34</f>
         <v>30</v>
       </c>
@@ -2676,10 +2657,10 @@
         <v>20</v>
       </c>
       <c r="I34" s="41"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="59" t="s">
-        <v>38</v>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="60" t="s">
+        <v>37</v>
       </c>
       <c r="M34" s="40"/>
       <c r="N34" s="40"/>
@@ -2744,13 +2725,13 @@
       <c r="AA35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2772,7 +2753,7 @@
       <c r="AA36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="80"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2800,7 +2781,7 @@
       <c r="AA37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="80"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2812,51 +2793,51 @@
       <c r="K38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="81" t="n">
+        <v>38</v>
+      </c>
+      <c r="F40" s="80" t="n">
         <v>32</v>
       </c>
-      <c r="G40" s="81" t="n">
+      <c r="G40" s="80" t="n">
         <f aca="false">F40/2</f>
         <v>16</v>
       </c>
-      <c r="H40" s="81"/>
+      <c r="H40" s="80"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="81" t="n">
+      <c r="F41" s="80" t="n">
         <v>18</v>
       </c>
-      <c r="G41" s="81" t="n">
+      <c r="G41" s="80" t="n">
         <f aca="false">F41/2</f>
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="1" t="n">
         <f aca="false">F41+F40</f>
         <v>50</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K42" s="3" t="n">
         <v>21</v>
@@ -2867,7 +2848,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43" s="3" t="n">
         <v>91</v>
@@ -2891,7 +2872,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I45" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45" s="3" t="n">
         <v>31</v>
@@ -2903,7 +2884,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I46" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46" s="3" t="n">
         <v>40</v>
@@ -2915,7 +2896,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47" s="3" t="n">
         <v>12</v>
@@ -2927,7 +2908,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48" s="3" t="n">
         <v>78</v>
@@ -2939,7 +2920,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I49" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="K49" s="3" t="n">
         <v>69</v>
@@ -2951,7 +2932,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I50" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K50" s="3" t="n">
         <v>20</v>
@@ -2975,7 +2956,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I52" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K52" s="3" t="n">
         <v>36</v>
@@ -3041,116 +3022,116 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="83" t="s">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B3" s="84" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83" t="s">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="85" t="s">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="85" t="s">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="85" t="s">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="85" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="85" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="85" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="84" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="86" t="s">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="84" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="85" t="s">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="85" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="85" t="s">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="84" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="86" t="s">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="85" t="s">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="85" t="s">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="84" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="85" t="s">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="85" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="85" t="s">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="84" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="86" t="s">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="85" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="85" t="s">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="84" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="86" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="85" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
